--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -445,14 +445,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="37" customWidth="1" min="1" max="1"/>
-    <col width="87" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="103" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
@@ -553,45 +553,49 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Manage Administrator Profile Values</t>
+          <t>Manage Transmission Configurations</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration Profile Display Name Updating Column Site , None , None , None</t>
+          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Profile Display Name</t>
+          <t>SDD - Acknowledgement</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>*Account Name</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Automation Testing on 12:15PM IST</t>
+          <t>bdkjabdknk</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Automation Testing on 5:15PM IST</t>
+          <t>klnjolwmklml</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*File Name</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr"/>
+          <t>ldnsldnlsn</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>klnldsnlfnl</t>
+        </is>
+      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
           <t>None</t>
@@ -640,12 +644,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
+          <t>Automation Testingdnksnsndlksmn</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
           <t>Automation Testing on 12:15PM IST</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Automation Testing on 5:15PM IST</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">

--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,15 +444,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
-    <col width="103" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="94" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
@@ -553,49 +553,41 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Manage Transmission Configurations</t>
+          <t>Manage Receivables System Options</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
+          <t>Updating Configuration Healthcare US Business Unit Updating Column None , None , None , None</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>SDD - Acknowledgement</t>
+          <t>Healthcare US Business Unit</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>*Account Name</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>bdkjabdknk</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>klnjolwmklml</t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>*File Name</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>ldnsldnlsn</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>klnldsnlfnl</t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr"/>
       <c r="J2" s="3" t="inlineStr">
         <is>
           <t>None</t>
@@ -624,34 +616,30 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Manage Administrator Profile Values</t>
+          <t>Manage Receivables System Options</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Updating Configuration Profile Display Name Updating Column Site , None , None , None</t>
+          <t>Updating Configuration Spain Business Unit Updating Column None , None , None , None</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Profile Display Name</t>
+          <t>Spain Business Unit</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Automation Testingdnksnsndlksmn</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Automation Testing on 12:15PM IST</t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr"/>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>None</t>
@@ -687,6 +675,69 @@
       <c r="O3" s="4" t="inlineStr"/>
       <c r="P3" s="4" t="inlineStr"/>
       <c r="Q3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Manage Receivables System Options</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration UK Business Unit Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>UK Business Unit</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,17 +444,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="94" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="140" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
@@ -553,52 +553,64 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Manage Receivables System Options</t>
+          <t>Manage Transmission Configurations</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration Healthcare US Business Unit Updating Column None , None , None , None</t>
+          <t>Updating Configuration Bills Receivable Config Updating Column File Directory , File Name , Append To File (Y/N) , None</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Healthcare US Business Unit</t>
+          <t>Bills Receivable Config</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>File Directory</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr"/>
+          <t>Testing in Progress</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>namaste</t>
+        </is>
+      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>File Name</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Testing In Progress 2 </t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>namaste1</t>
+        </is>
+      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Append To File (Y/N)</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr"/>
+          <t>Testing in Progress 3</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>namaste2</t>
+        </is>
+      </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
           <t>None</t>
@@ -616,41 +628,49 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Manage Receivables System Options</t>
+          <t>Manage Transmission Configurations</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Updating Configuration Spain Business Unit Updating Column None , None , None , None</t>
+          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Spain Business Unit</t>
+          <t>SDD - Acknowledgement</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*Account Name</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr"/>
+          <t>Testing in Progress 5</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>namaste3</t>
+        </is>
+      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*File Name</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
+          <t>Testing in Progress 4</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>namaste4</t>
+        </is>
+      </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t>None</t>
@@ -679,30 +699,34 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Manage Receivables System Options</t>
+          <t>Manage Administrative Profile Values</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration UK Business Unit Updating Column None , None , None , None</t>
+          <t>Updating Configuration Profile Display Name Updating Column Site , None , None , None</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>UK Business Unit</t>
+          <t>Profile Display Name</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Site</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Automation is Going on </t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Automation Testingdnksnsndlksmn</t>
+        </is>
+      </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>None</t>
@@ -738,6 +762,841 @@
       <c r="O4" s="3" t="inlineStr"/>
       <c r="P4" s="3" t="inlineStr"/>
       <c r="Q4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESS Job Submission </t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration None Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manage Disbursement System Option </t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration Separate Remittance Advice from Email Updating Column Achyut.Kumar@us.gt.com , Achyut.Kumar@us.gt.com , None , None</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Separate Remittance Advice from Email</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Achyut.Kumar@us.gt.com</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Separate Remittance Advice Subject</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>fastrack2@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Achyut.Kumar@us.gt.com</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>fastrack3@gmail.com</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Manage Supplier Notification</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration None Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>DISABLE</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Run GL Process </t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration Create General Ledger Cube Updating Column *Chart of Accounts , *Accounting Calendar , *Starting Period , None</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Create General Ledger Cube</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>*Chart of Accounts</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Cadbury</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>*Accounting Calendar</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Cadbury_Cal</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>*Starting Period</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>Jan-22</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr"/>
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Disable Printer</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration None Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr"/>
+      <c r="P9" s="4" t="inlineStr"/>
+      <c r="Q9" s="4" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Disable Notification in BPM worklist</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration None Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr"/>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Manage Journal Approvals</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration None Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Security Console</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration DEFAULT Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Manage Payment Process Profile</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration ANSI X12 820 Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>ANSI X12 820</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr"/>
+      <c r="P13" s="4" t="inlineStr"/>
+      <c r="Q13" s="4" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Manage Payment Process Profile</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration BP_Training_DemoPPP Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>BP_Training_DemoPPP</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Manage Payment Process Profile</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration Bank Transfer Request Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Bank Transfer Request</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="inlineStr"/>
+      <c r="Q15" s="4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Manage Receivables System Options</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Updating Configuration Australia Business Unit Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Australia Business Unit</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr"/>
+      <c r="P16" s="3" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Manage Receivables System Options</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Updating Configuration Belgium Business Unit Updating Column None , None , None , None</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Belgium Business Unit</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr"/>
+      <c r="P17" s="4" t="inlineStr"/>
+      <c r="Q17" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,18 +444,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
-    <col width="88" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="121" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
@@ -553,52 +553,64 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Manage Payment Process Profile</t>
+          <t>Manage Transmission Configurations</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration ANSI X12 820 Updating Column None , None , None , None</t>
+          <t>Updating Configuration Bills Receivable Config Updating Column File Directory , File Name , Append To File (Y/N) , None</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>ANSI X12 820</t>
+          <t>Bills Receivable Config</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>File Directory</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr"/>
+          <t>snflsnlfnslnslnl</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>nksnnslnslk</t>
+        </is>
+      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>File Name</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr"/>
+          <t>nskofnsknsokfnskonm</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>fosfjsnlksn</t>
+        </is>
+      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Append To File (Y/N)</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr"/>
+          <t>fklsnklsndlksn</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>onsokdnlskn</t>
+        </is>
+      </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
           <t>None</t>
@@ -616,41 +628,49 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Manage Payment Process Profile</t>
+          <t>Manage Transmission Configurations</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Updating Configuration BP_Training_DemoPPP Updating Column None , None , None , None</t>
+          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>BP_Training_DemoPPP</t>
+          <t>SDD - Acknowledgement</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*Account Name</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr"/>
+          <t>oshfosfonsofno</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>jdkonsodnosndoks</t>
+        </is>
+      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*File Name</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
+          <t>okdoksndonso</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>nlskndlsnlkd</t>
+        </is>
+      </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t>None</t>
@@ -675,69 +695,6 @@
       <c r="O3" s="4" t="inlineStr"/>
       <c r="P3" s="4" t="inlineStr"/>
       <c r="Q3" s="4" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Manage Payment Process Profile</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Updating Configuration Bank Transfer Request Updating Column None , None , None , None</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Bank Transfer Request</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr"/>
-      <c r="Q4" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -449,13 +449,13 @@
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
@@ -573,14 +573,10 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>snflsnlfnslnslnl</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>nksnnslnslk</t>
-        </is>
-      </c>
+          <t>jknfjksnfksnfkjn</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>File Name</t>
@@ -588,14 +584,10 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>nskofnsknsokfnskonm</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>fosfjsnlksn</t>
-        </is>
-      </c>
+          <t>obsjodfnslfnsjn</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr"/>
       <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Append To File (Y/N)</t>
@@ -603,14 +595,10 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>fklsnklsndlksn</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>onsokdnlskn</t>
-        </is>
-      </c>
+          <t>ndsondklndoksn</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr"/>
       <c r="M2" s="3" t="inlineStr">
         <is>
           <t>None</t>
@@ -648,14 +636,10 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>oshfosfonsofno</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>jdkonsodnosndoks</t>
-        </is>
-      </c>
+          <t>nfjnsfnsn</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr"/>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>*File Name</t>
@@ -663,14 +647,10 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>okdoksndonso</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>nlskndlsnlkd</t>
-        </is>
-      </c>
+          <t>kopadpkapdap</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t>None</t>

--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -43,12 +50,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -61,19 +83,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -436,25 +457,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="121" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="154" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
@@ -558,125 +579,78 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration Bills Receivable Config Updating Column File Directory , File Name , Append To File (Y/N) , None</t>
+          <t>Updating Configuration CYS SOAP Test Center Updating Column *Destination URL , HTTP Authentication User Name , HTTP Authentication Password , Proxy Host</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Bills Receivable Config</t>
+          <t>CYS SOAP Test Center</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>File Directory</t>
+          <t>*Destination URL</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>jknfjksnfksnfkjn</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr"/>
+          <t>testing4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>testing4</t>
+        </is>
+      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>File Name</t>
+          <t>HTTP Authentication User Name</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>obsjodfnslfnsjn</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr"/>
+          <t>Hello2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>Append To File (Y/N)</t>
+          <t>HTTP Authentication Password</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>ndsondklndoksn</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr"/>
+          <t>testing32</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Hello2</t>
+        </is>
+      </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Proxy Host</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr"/>
-      <c r="P2" s="3" t="inlineStr"/>
-      <c r="Q2" s="3" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Manage Transmission Configurations</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>SDD - Acknowledgement</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>*Account Name</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>nfjnsfnsn</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>*File Name</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>kopadpkapdap</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="inlineStr"/>
-      <c r="P3" s="4" t="inlineStr"/>
-      <c r="Q3" s="4" t="inlineStr"/>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>testing32</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -466,15 +466,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="154" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="31" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="103" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
@@ -579,74 +579,66 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration CYS SOAP Test Center Updating Column *Destination URL , HTTP Authentication User Name , HTTP Authentication Password , Proxy Host</t>
+          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>CYS SOAP Test Center</t>
+          <t>SDD - Acknowledgement</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>*Destination URL</t>
+          <t>*Account Name</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>testing4</t>
+          <t>fnsjfpskpkp</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>testing4</t>
+          <t>oshfosfonsofno</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>HTTP Authentication User Name</t>
+          <t>*File Name</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Hello2</t>
+          <t>dmsmpmspdmpsmdp</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>okdoksndonso</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>HTTP Authentication Password</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>testing32</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Hello2</t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="n"/>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>Proxy Host</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>testing32</t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
       <c r="P2" s="3" t="n"/>
       <c r="Q2" s="3" t="n"/>
     </row>

--- a/Input/output_data.xlsx
+++ b/Input/output_data.xlsx
@@ -466,15 +466,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="103" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="121" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="17" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
@@ -579,55 +579,59 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Updating Configuration SDD - Acknowledgement Updating Column *Account Name , *File Name , None , None</t>
+          <t>Updating Configuration Bills Receivable Config Updating Column File Directory , File Name , Append To File (Y/N) , None</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>SDD - Acknowledgement</t>
+          <t>Bills Receivable Config</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>*Account Name</t>
+          <t>File Directory</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>fnsjfpskpkp</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>oshfosfonsofno</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>*File Name</t>
+          <t>File Name</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>dmsmpmspdmpsmdp</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>okdoksndonso</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Append To File (Y/N)</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="n"/>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
           <t>None</t>
